--- a/outputs/paper/UCI_AIR_QUALITY_Results.xlsx
+++ b/outputs/paper/UCI_AIR_QUALITY_Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>dataset_name</t>
   </si>
@@ -82,6 +82,66 @@
     <t>total_perf_duration_minutes_seed_214</t>
   </si>
   <si>
+    <t>change_point_perc_seed_565</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_565</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_565</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_565</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_600</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_600</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_600</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_600</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_713</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_713</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_713</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_713</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_999</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_999</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_999</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_999</t>
+  </si>
+  <si>
+    <t>change_point_perc_seed_1001</t>
+  </si>
+  <si>
+    <t>Avg_RMSE_seed_1001</t>
+  </si>
+  <si>
+    <t>total_perf_duration_seed_1001</t>
+  </si>
+  <si>
+    <t>total_perf_duration_minutes_seed_1001</t>
+  </si>
+  <si>
     <t>change_point_perc_mean</t>
   </si>
   <si>
@@ -178,7 +238,7 @@
     <t>Fixed Cut 90%</t>
   </si>
   <si>
-    <t>Full</t>
+    <t>No CPD</t>
   </si>
   <si>
     <t>Window AR</t>
@@ -557,13 +617,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AY32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:51">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,16 +714,76 @@
       <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:51">
       <c r="A2" s="1">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>55.91</v>
@@ -729,36 +849,96 @@
         <v>55.91</v>
       </c>
       <c r="Y2">
+        <v>39.26</v>
+      </c>
+      <c r="Z2">
+        <v>394.54</v>
+      </c>
+      <c r="AA2">
+        <v>6.58</v>
+      </c>
+      <c r="AB2">
+        <v>55.91</v>
+      </c>
+      <c r="AC2">
+        <v>41.17</v>
+      </c>
+      <c r="AD2">
+        <v>518.24</v>
+      </c>
+      <c r="AE2">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="AF2">
+        <v>55.91</v>
+      </c>
+      <c r="AG2">
+        <v>42.64</v>
+      </c>
+      <c r="AH2">
+        <v>501.1</v>
+      </c>
+      <c r="AI2">
+        <v>8.35</v>
+      </c>
+      <c r="AJ2">
+        <v>55.91</v>
+      </c>
+      <c r="AK2">
+        <v>40.46</v>
+      </c>
+      <c r="AL2">
+        <v>539.5700000000001</v>
+      </c>
+      <c r="AM2">
+        <v>8.99</v>
+      </c>
+      <c r="AN2">
+        <v>55.91</v>
+      </c>
+      <c r="AO2">
+        <v>46.56</v>
+      </c>
+      <c r="AP2">
+        <v>625.37</v>
+      </c>
+      <c r="AQ2">
+        <v>10.42</v>
+      </c>
+      <c r="AR2">
+        <v>55.91</v>
+      </c>
+      <c r="AS2">
         <v>0</v>
       </c>
-      <c r="Z2">
-        <v>41.28</v>
-      </c>
-      <c r="AA2">
-        <v>1.54</v>
-      </c>
-      <c r="AB2">
-        <v>584.92</v>
-      </c>
-      <c r="AC2">
-        <v>78.64</v>
-      </c>
-      <c r="AD2">
-        <v>9.75</v>
-      </c>
-      <c r="AE2">
-        <v>1.31</v>
+      <c r="AT2">
+        <v>41.65</v>
+      </c>
+      <c r="AU2">
+        <v>2.18</v>
+      </c>
+      <c r="AV2">
+        <v>550.34</v>
+      </c>
+      <c r="AW2">
+        <v>84.45</v>
+      </c>
+      <c r="AX2">
+        <v>9.17</v>
+      </c>
+      <c r="AY2">
+        <v>1.41</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:51">
       <c r="A3" s="1">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>55.98</v>
@@ -824,36 +1004,96 @@
         <v>55.98</v>
       </c>
       <c r="Y3">
+        <v>44.96</v>
+      </c>
+      <c r="Z3">
+        <v>342.7</v>
+      </c>
+      <c r="AA3">
+        <v>5.71</v>
+      </c>
+      <c r="AB3">
+        <v>55.98</v>
+      </c>
+      <c r="AC3">
+        <v>40.38</v>
+      </c>
+      <c r="AD3">
+        <v>552.03</v>
+      </c>
+      <c r="AE3">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF3">
+        <v>55.98</v>
+      </c>
+      <c r="AG3">
+        <v>42.78</v>
+      </c>
+      <c r="AH3">
+        <v>554.29</v>
+      </c>
+      <c r="AI3">
+        <v>9.24</v>
+      </c>
+      <c r="AJ3">
+        <v>55.98</v>
+      </c>
+      <c r="AK3">
+        <v>42.25</v>
+      </c>
+      <c r="AL3">
+        <v>509.18</v>
+      </c>
+      <c r="AM3">
+        <v>8.49</v>
+      </c>
+      <c r="AN3">
+        <v>55.98</v>
+      </c>
+      <c r="AO3">
+        <v>50.89</v>
+      </c>
+      <c r="AP3">
+        <v>617.8200000000001</v>
+      </c>
+      <c r="AQ3">
+        <v>10.3</v>
+      </c>
+      <c r="AR3">
+        <v>55.98</v>
+      </c>
+      <c r="AS3">
         <v>0</v>
       </c>
-      <c r="Z3">
-        <v>45.81</v>
-      </c>
-      <c r="AA3">
-        <v>5.1</v>
-      </c>
-      <c r="AB3">
-        <v>590.86</v>
-      </c>
-      <c r="AC3">
-        <v>58.2</v>
-      </c>
-      <c r="AD3">
-        <v>9.85</v>
-      </c>
-      <c r="AE3">
-        <v>0.97</v>
+      <c r="AT3">
+        <v>45.03</v>
+      </c>
+      <c r="AU3">
+        <v>4.42</v>
+      </c>
+      <c r="AV3">
+        <v>553.03</v>
+      </c>
+      <c r="AW3">
+        <v>88.86</v>
+      </c>
+      <c r="AX3">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="AY3">
+        <v>1.48</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:51">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D4">
         <v>56.31</v>
@@ -919,36 +1159,96 @@
         <v>56.31</v>
       </c>
       <c r="Y4">
+        <v>40.38</v>
+      </c>
+      <c r="Z4">
+        <v>343.35</v>
+      </c>
+      <c r="AA4">
+        <v>5.72</v>
+      </c>
+      <c r="AB4">
+        <v>56.31</v>
+      </c>
+      <c r="AC4">
+        <v>40.29</v>
+      </c>
+      <c r="AD4">
+        <v>561.62</v>
+      </c>
+      <c r="AE4">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="AF4">
+        <v>56.31</v>
+      </c>
+      <c r="AG4">
+        <v>39.99</v>
+      </c>
+      <c r="AH4">
+        <v>524.84</v>
+      </c>
+      <c r="AI4">
+        <v>8.75</v>
+      </c>
+      <c r="AJ4">
+        <v>56.31</v>
+      </c>
+      <c r="AK4">
+        <v>41.71</v>
+      </c>
+      <c r="AL4">
+        <v>557.6900000000001</v>
+      </c>
+      <c r="AM4">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="AN4">
+        <v>56.31</v>
+      </c>
+      <c r="AO4">
+        <v>41.01</v>
+      </c>
+      <c r="AP4">
+        <v>642.21</v>
+      </c>
+      <c r="AQ4">
+        <v>10.7</v>
+      </c>
+      <c r="AR4">
+        <v>56.31</v>
+      </c>
+      <c r="AS4">
         <v>0</v>
       </c>
-      <c r="Z4">
-        <v>42.5</v>
-      </c>
-      <c r="AA4">
-        <v>4.27</v>
-      </c>
-      <c r="AB4">
-        <v>603.03</v>
-      </c>
-      <c r="AC4">
-        <v>74.56999999999999</v>
-      </c>
-      <c r="AD4">
-        <v>10.05</v>
-      </c>
-      <c r="AE4">
-        <v>1.24</v>
+      <c r="AT4">
+        <v>41.59</v>
+      </c>
+      <c r="AU4">
+        <v>3.04</v>
+      </c>
+      <c r="AV4">
+        <v>564.48</v>
+      </c>
+      <c r="AW4">
+        <v>97.89</v>
+      </c>
+      <c r="AX4">
+        <v>9.41</v>
+      </c>
+      <c r="AY4">
+        <v>1.63</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:51">
       <c r="A5" s="1">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>41.82</v>
@@ -1014,36 +1314,96 @@
         <v>41.82</v>
       </c>
       <c r="Y5">
+        <v>37.21</v>
+      </c>
+      <c r="Z5">
+        <v>497.6</v>
+      </c>
+      <c r="AA5">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="AB5">
+        <v>41.82</v>
+      </c>
+      <c r="AC5">
+        <v>40.52</v>
+      </c>
+      <c r="AD5">
+        <v>520.21</v>
+      </c>
+      <c r="AE5">
+        <v>8.67</v>
+      </c>
+      <c r="AF5">
+        <v>41.82</v>
+      </c>
+      <c r="AG5">
+        <v>38.95</v>
+      </c>
+      <c r="AH5">
+        <v>689.79</v>
+      </c>
+      <c r="AI5">
+        <v>11.5</v>
+      </c>
+      <c r="AJ5">
+        <v>41.82</v>
+      </c>
+      <c r="AK5">
+        <v>51.71</v>
+      </c>
+      <c r="AL5">
+        <v>799.66</v>
+      </c>
+      <c r="AM5">
+        <v>13.33</v>
+      </c>
+      <c r="AN5">
+        <v>41.82</v>
+      </c>
+      <c r="AO5">
+        <v>49.12</v>
+      </c>
+      <c r="AP5">
+        <v>727.8200000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>12.13</v>
+      </c>
+      <c r="AR5">
+        <v>41.82</v>
+      </c>
+      <c r="AS5">
         <v>0</v>
       </c>
-      <c r="Z5">
-        <v>50.24</v>
-      </c>
-      <c r="AA5">
-        <v>3.98</v>
-      </c>
-      <c r="AB5">
-        <v>734.22</v>
-      </c>
-      <c r="AC5">
-        <v>98.41</v>
-      </c>
-      <c r="AD5">
-        <v>12.24</v>
-      </c>
-      <c r="AE5">
-        <v>1.64</v>
+      <c r="AT5">
+        <v>46.87</v>
+      </c>
+      <c r="AU5">
+        <v>6.19</v>
+      </c>
+      <c r="AV5">
+        <v>690.62</v>
+      </c>
+      <c r="AW5">
+        <v>119.17</v>
+      </c>
+      <c r="AX5">
+        <v>11.51</v>
+      </c>
+      <c r="AY5">
+        <v>1.99</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:51">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>55.91</v>
@@ -1109,36 +1469,96 @@
         <v>55.91</v>
       </c>
       <c r="Y6">
+        <v>39.26</v>
+      </c>
+      <c r="Z6">
+        <v>402.04</v>
+      </c>
+      <c r="AA6">
+        <v>6.7</v>
+      </c>
+      <c r="AB6">
+        <v>55.91</v>
+      </c>
+      <c r="AC6">
+        <v>41.17</v>
+      </c>
+      <c r="AD6">
+        <v>497.4</v>
+      </c>
+      <c r="AE6">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="AF6">
+        <v>55.91</v>
+      </c>
+      <c r="AG6">
+        <v>42.64</v>
+      </c>
+      <c r="AH6">
+        <v>502.27</v>
+      </c>
+      <c r="AI6">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>55.91</v>
+      </c>
+      <c r="AK6">
+        <v>40.46</v>
+      </c>
+      <c r="AL6">
+        <v>549.85</v>
+      </c>
+      <c r="AM6">
+        <v>9.16</v>
+      </c>
+      <c r="AN6">
+        <v>55.91</v>
+      </c>
+      <c r="AO6">
+        <v>46.56</v>
+      </c>
+      <c r="AP6">
+        <v>621.66</v>
+      </c>
+      <c r="AQ6">
+        <v>10.36</v>
+      </c>
+      <c r="AR6">
+        <v>55.91</v>
+      </c>
+      <c r="AS6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>41.28</v>
-      </c>
-      <c r="AA6">
-        <v>1.54</v>
-      </c>
-      <c r="AB6">
-        <v>593.65</v>
-      </c>
-      <c r="AC6">
-        <v>74</v>
-      </c>
-      <c r="AD6">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="AE6">
-        <v>1.23</v>
+      <c r="AT6">
+        <v>41.65</v>
+      </c>
+      <c r="AU6">
+        <v>2.18</v>
+      </c>
+      <c r="AV6">
+        <v>554.15</v>
+      </c>
+      <c r="AW6">
+        <v>83.88</v>
+      </c>
+      <c r="AX6">
+        <v>9.24</v>
+      </c>
+      <c r="AY6">
+        <v>1.4</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:51">
       <c r="A7" s="1">
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>55.98</v>
@@ -1204,36 +1624,96 @@
         <v>55.98</v>
       </c>
       <c r="Y7">
+        <v>44.96</v>
+      </c>
+      <c r="Z7">
+        <v>378.3</v>
+      </c>
+      <c r="AA7">
+        <v>6.3</v>
+      </c>
+      <c r="AB7">
+        <v>55.98</v>
+      </c>
+      <c r="AC7">
+        <v>40.38</v>
+      </c>
+      <c r="AD7">
+        <v>601.29</v>
+      </c>
+      <c r="AE7">
+        <v>10.02</v>
+      </c>
+      <c r="AF7">
+        <v>55.98</v>
+      </c>
+      <c r="AG7">
+        <v>42.78</v>
+      </c>
+      <c r="AH7">
+        <v>531.9299999999999</v>
+      </c>
+      <c r="AI7">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>55.98</v>
+      </c>
+      <c r="AK7">
+        <v>42.25</v>
+      </c>
+      <c r="AL7">
+        <v>554.84</v>
+      </c>
+      <c r="AM7">
+        <v>9.25</v>
+      </c>
+      <c r="AN7">
+        <v>55.98</v>
+      </c>
+      <c r="AO7">
+        <v>50.89</v>
+      </c>
+      <c r="AP7">
+        <v>654.9299999999999</v>
+      </c>
+      <c r="AQ7">
+        <v>10.92</v>
+      </c>
+      <c r="AR7">
+        <v>55.98</v>
+      </c>
+      <c r="AS7">
         <v>0</v>
       </c>
-      <c r="Z7">
-        <v>45.81</v>
-      </c>
-      <c r="AA7">
-        <v>5.1</v>
-      </c>
-      <c r="AB7">
-        <v>595.04</v>
-      </c>
-      <c r="AC7">
-        <v>51.57</v>
-      </c>
-      <c r="AD7">
-        <v>9.92</v>
-      </c>
-      <c r="AE7">
-        <v>0.86</v>
+      <c r="AT7">
+        <v>45.03</v>
+      </c>
+      <c r="AU7">
+        <v>4.42</v>
+      </c>
+      <c r="AV7">
+        <v>569.65</v>
+      </c>
+      <c r="AW7">
+        <v>81.92</v>
+      </c>
+      <c r="AX7">
+        <v>9.49</v>
+      </c>
+      <c r="AY7">
+        <v>1.37</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:51">
       <c r="A8" s="1">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D8">
         <v>55.71</v>
@@ -1299,36 +1779,96 @@
         <v>55.71</v>
       </c>
       <c r="Y8">
+        <v>39.5</v>
+      </c>
+      <c r="Z8">
+        <v>376.25</v>
+      </c>
+      <c r="AA8">
+        <v>6.27</v>
+      </c>
+      <c r="AB8">
+        <v>55.71</v>
+      </c>
+      <c r="AC8">
+        <v>43.64</v>
+      </c>
+      <c r="AD8">
+        <v>507.32</v>
+      </c>
+      <c r="AE8">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="AF8">
+        <v>55.71</v>
+      </c>
+      <c r="AG8">
+        <v>43.59</v>
+      </c>
+      <c r="AH8">
+        <v>509.18</v>
+      </c>
+      <c r="AI8">
+        <v>8.49</v>
+      </c>
+      <c r="AJ8">
+        <v>55.71</v>
+      </c>
+      <c r="AK8">
+        <v>42.71</v>
+      </c>
+      <c r="AL8">
+        <v>508.96</v>
+      </c>
+      <c r="AM8">
+        <v>8.48</v>
+      </c>
+      <c r="AN8">
+        <v>55.71</v>
+      </c>
+      <c r="AO8">
+        <v>53.66</v>
+      </c>
+      <c r="AP8">
+        <v>608.42</v>
+      </c>
+      <c r="AQ8">
+        <v>10.14</v>
+      </c>
+      <c r="AR8">
+        <v>55.71</v>
+      </c>
+      <c r="AS8">
         <v>0</v>
       </c>
-      <c r="Z8">
-        <v>48.47</v>
-      </c>
-      <c r="AA8">
-        <v>4.15</v>
-      </c>
-      <c r="AB8">
-        <v>582.05</v>
-      </c>
-      <c r="AC8">
-        <v>72.45999999999999</v>
-      </c>
-      <c r="AD8">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="AE8">
-        <v>1.21</v>
+      <c r="AT8">
+        <v>46.55</v>
+      </c>
+      <c r="AU8">
+        <v>4.94</v>
+      </c>
+      <c r="AV8">
+        <v>542.04</v>
+      </c>
+      <c r="AW8">
+        <v>84.51000000000001</v>
+      </c>
+      <c r="AX8">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AY8">
+        <v>1.41</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:51">
       <c r="A9" s="1">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>55.78</v>
@@ -1394,36 +1934,96 @@
         <v>55.78</v>
       </c>
       <c r="Y9">
+        <v>40.68</v>
+      </c>
+      <c r="Z9">
+        <v>408.91</v>
+      </c>
+      <c r="AA9">
+        <v>6.82</v>
+      </c>
+      <c r="AB9">
+        <v>55.78</v>
+      </c>
+      <c r="AC9">
+        <v>45.18</v>
+      </c>
+      <c r="AD9">
+        <v>567.6</v>
+      </c>
+      <c r="AE9">
+        <v>9.460000000000001</v>
+      </c>
+      <c r="AF9">
+        <v>55.78</v>
+      </c>
+      <c r="AG9">
+        <v>42.69</v>
+      </c>
+      <c r="AH9">
+        <v>545.12</v>
+      </c>
+      <c r="AI9">
+        <v>9.09</v>
+      </c>
+      <c r="AJ9">
+        <v>55.78</v>
+      </c>
+      <c r="AK9">
+        <v>42.22</v>
+      </c>
+      <c r="AL9">
+        <v>497.04</v>
+      </c>
+      <c r="AM9">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="AN9">
+        <v>55.78</v>
+      </c>
+      <c r="AO9">
+        <v>48.64</v>
+      </c>
+      <c r="AP9">
+        <v>680.09</v>
+      </c>
+      <c r="AQ9">
+        <v>11.33</v>
+      </c>
+      <c r="AR9">
+        <v>55.78</v>
+      </c>
+      <c r="AS9">
         <v>0</v>
       </c>
-      <c r="Z9">
-        <v>44.94</v>
-      </c>
-      <c r="AA9">
-        <v>5.85</v>
-      </c>
-      <c r="AB9">
-        <v>584.79</v>
-      </c>
-      <c r="AC9">
-        <v>81.47</v>
-      </c>
-      <c r="AD9">
-        <v>9.75</v>
-      </c>
-      <c r="AE9">
-        <v>1.36</v>
+      <c r="AT9">
+        <v>44.41</v>
+      </c>
+      <c r="AU9">
+        <v>4.45</v>
+      </c>
+      <c r="AV9">
+        <v>562.27</v>
+      </c>
+      <c r="AW9">
+        <v>88.86</v>
+      </c>
+      <c r="AX9">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="AY9">
+        <v>1.48</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:51">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>55.38</v>
@@ -1489,36 +2089,96 @@
         <v>55.38</v>
       </c>
       <c r="Y10">
+        <v>39.62</v>
+      </c>
+      <c r="Z10">
+        <v>406.41</v>
+      </c>
+      <c r="AA10">
+        <v>6.77</v>
+      </c>
+      <c r="AB10">
+        <v>55.38</v>
+      </c>
+      <c r="AC10">
+        <v>40.79</v>
+      </c>
+      <c r="AD10">
+        <v>506.1</v>
+      </c>
+      <c r="AE10">
+        <v>8.43</v>
+      </c>
+      <c r="AF10">
+        <v>55.38</v>
+      </c>
+      <c r="AG10">
+        <v>41.42</v>
+      </c>
+      <c r="AH10">
+        <v>482</v>
+      </c>
+      <c r="AI10">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="AJ10">
+        <v>55.38</v>
+      </c>
+      <c r="AK10">
+        <v>40.42</v>
+      </c>
+      <c r="AL10">
+        <v>539.58</v>
+      </c>
+      <c r="AM10">
+        <v>8.99</v>
+      </c>
+      <c r="AN10">
+        <v>55.38</v>
+      </c>
+      <c r="AO10">
+        <v>40.16</v>
+      </c>
+      <c r="AP10">
+        <v>586.89</v>
+      </c>
+      <c r="AQ10">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AR10">
+        <v>55.38</v>
+      </c>
+      <c r="AS10">
         <v>0</v>
       </c>
-      <c r="Z10">
-        <v>45.01</v>
-      </c>
-      <c r="AA10">
-        <v>4.12</v>
-      </c>
-      <c r="AB10">
-        <v>619.0700000000001</v>
-      </c>
-      <c r="AC10">
-        <v>85.06999999999999</v>
-      </c>
-      <c r="AD10">
-        <v>10.32</v>
-      </c>
-      <c r="AE10">
-        <v>1.42</v>
+      <c r="AT10">
+        <v>42.75</v>
+      </c>
+      <c r="AU10">
+        <v>3.66</v>
+      </c>
+      <c r="AV10">
+        <v>561.64</v>
+      </c>
+      <c r="AW10">
+        <v>94.33</v>
+      </c>
+      <c r="AX10">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="AY10">
+        <v>1.57</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:51">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>55.98</v>
@@ -1584,36 +2244,96 @@
         <v>55.98</v>
       </c>
       <c r="Y11">
+        <v>44.96</v>
+      </c>
+      <c r="Z11">
+        <v>378.41</v>
+      </c>
+      <c r="AA11">
+        <v>6.31</v>
+      </c>
+      <c r="AB11">
+        <v>55.98</v>
+      </c>
+      <c r="AC11">
+        <v>40.38</v>
+      </c>
+      <c r="AD11">
+        <v>582.55</v>
+      </c>
+      <c r="AE11">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="AF11">
+        <v>55.98</v>
+      </c>
+      <c r="AG11">
+        <v>42.78</v>
+      </c>
+      <c r="AH11">
+        <v>522.51</v>
+      </c>
+      <c r="AI11">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="AJ11">
+        <v>55.98</v>
+      </c>
+      <c r="AK11">
+        <v>42.25</v>
+      </c>
+      <c r="AL11">
+        <v>559.3</v>
+      </c>
+      <c r="AM11">
+        <v>9.32</v>
+      </c>
+      <c r="AN11">
+        <v>55.98</v>
+      </c>
+      <c r="AO11">
+        <v>50.89</v>
+      </c>
+      <c r="AP11">
+        <v>687.99</v>
+      </c>
+      <c r="AQ11">
+        <v>11.47</v>
+      </c>
+      <c r="AR11">
+        <v>55.98</v>
+      </c>
+      <c r="AS11">
         <v>0</v>
       </c>
-      <c r="Z11">
-        <v>45.81</v>
-      </c>
-      <c r="AA11">
-        <v>5.1</v>
-      </c>
-      <c r="AB11">
-        <v>574.11</v>
-      </c>
-      <c r="AC11">
-        <v>61.27</v>
-      </c>
-      <c r="AD11">
-        <v>9.57</v>
-      </c>
-      <c r="AE11">
-        <v>1.02</v>
+      <c r="AT11">
+        <v>45.03</v>
+      </c>
+      <c r="AU11">
+        <v>4.42</v>
+      </c>
+      <c r="AV11">
+        <v>560.13</v>
+      </c>
+      <c r="AW11">
+        <v>86.45999999999999</v>
+      </c>
+      <c r="AX11">
+        <v>9.34</v>
+      </c>
+      <c r="AY11">
+        <v>1.44</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:51">
       <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>44.02</v>
@@ -1679,36 +2399,96 @@
         <v>44.02</v>
       </c>
       <c r="Y12">
+        <v>39.29</v>
+      </c>
+      <c r="Z12">
+        <v>430.58</v>
+      </c>
+      <c r="AA12">
+        <v>7.18</v>
+      </c>
+      <c r="AB12">
+        <v>44.02</v>
+      </c>
+      <c r="AC12">
+        <v>41.4</v>
+      </c>
+      <c r="AD12">
+        <v>680.48</v>
+      </c>
+      <c r="AE12">
+        <v>11.34</v>
+      </c>
+      <c r="AF12">
+        <v>44.02</v>
+      </c>
+      <c r="AG12">
+        <v>40.73</v>
+      </c>
+      <c r="AH12">
+        <v>679.53</v>
+      </c>
+      <c r="AI12">
+        <v>11.33</v>
+      </c>
+      <c r="AJ12">
+        <v>44.02</v>
+      </c>
+      <c r="AK12">
+        <v>39.49</v>
+      </c>
+      <c r="AL12">
+        <v>668.11</v>
+      </c>
+      <c r="AM12">
+        <v>11.14</v>
+      </c>
+      <c r="AN12">
+        <v>44.02</v>
+      </c>
+      <c r="AO12">
+        <v>41.33</v>
+      </c>
+      <c r="AP12">
+        <v>677.1799999999999</v>
+      </c>
+      <c r="AQ12">
+        <v>11.29</v>
+      </c>
+      <c r="AR12">
+        <v>44.02</v>
+      </c>
+      <c r="AS12">
         <v>0</v>
       </c>
-      <c r="Z12">
-        <v>45.41</v>
-      </c>
-      <c r="AA12">
-        <v>7.74</v>
-      </c>
-      <c r="AB12">
-        <v>685.04</v>
-      </c>
-      <c r="AC12">
-        <v>69.29000000000001</v>
-      </c>
-      <c r="AD12">
-        <v>11.42</v>
-      </c>
-      <c r="AE12">
-        <v>1.15</v>
+      <c r="AT12">
+        <v>42.93</v>
+      </c>
+      <c r="AU12">
+        <v>5.82</v>
+      </c>
+      <c r="AV12">
+        <v>656.11</v>
+      </c>
+      <c r="AW12">
+        <v>91.88</v>
+      </c>
+      <c r="AX12">
+        <v>10.94</v>
+      </c>
+      <c r="AY12">
+        <v>1.53</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:51">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>53.04</v>
@@ -1774,36 +2554,96 @@
         <v>53.04</v>
       </c>
       <c r="Y13">
+        <v>40.65</v>
+      </c>
+      <c r="Z13">
+        <v>367.22</v>
+      </c>
+      <c r="AA13">
+        <v>6.12</v>
+      </c>
+      <c r="AB13">
+        <v>53.04</v>
+      </c>
+      <c r="AC13">
+        <v>41.73</v>
+      </c>
+      <c r="AD13">
+        <v>529.33</v>
+      </c>
+      <c r="AE13">
+        <v>8.82</v>
+      </c>
+      <c r="AF13">
+        <v>53.04</v>
+      </c>
+      <c r="AG13">
+        <v>40.96</v>
+      </c>
+      <c r="AH13">
+        <v>523.4400000000001</v>
+      </c>
+      <c r="AI13">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="AJ13">
+        <v>53.04</v>
+      </c>
+      <c r="AK13">
+        <v>41.4</v>
+      </c>
+      <c r="AL13">
+        <v>670.63</v>
+      </c>
+      <c r="AM13">
+        <v>11.18</v>
+      </c>
+      <c r="AN13">
+        <v>53.04</v>
+      </c>
+      <c r="AO13">
+        <v>51.14</v>
+      </c>
+      <c r="AP13">
+        <v>662.86</v>
+      </c>
+      <c r="AQ13">
+        <v>11.05</v>
+      </c>
+      <c r="AR13">
+        <v>53.04</v>
+      </c>
+      <c r="AS13">
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>46.87</v>
-      </c>
-      <c r="AA13">
-        <v>3.55</v>
-      </c>
-      <c r="AB13">
-        <v>630.8099999999999</v>
-      </c>
-      <c r="AC13">
-        <v>81.45999999999999</v>
-      </c>
-      <c r="AD13">
-        <v>10.51</v>
-      </c>
-      <c r="AE13">
-        <v>1.36</v>
+      <c r="AT13">
+        <v>45.03</v>
+      </c>
+      <c r="AU13">
+        <v>4.28</v>
+      </c>
+      <c r="AV13">
+        <v>590.75</v>
+      </c>
+      <c r="AW13">
+        <v>107.71</v>
+      </c>
+      <c r="AX13">
+        <v>9.85</v>
+      </c>
+      <c r="AY13">
+        <v>1.8</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:51">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <v>55.38</v>
@@ -1869,36 +2709,96 @@
         <v>55.38</v>
       </c>
       <c r="Y14">
+        <v>39.62</v>
+      </c>
+      <c r="Z14">
+        <v>393.94</v>
+      </c>
+      <c r="AA14">
+        <v>6.57</v>
+      </c>
+      <c r="AB14">
+        <v>55.38</v>
+      </c>
+      <c r="AC14">
+        <v>40.79</v>
+      </c>
+      <c r="AD14">
+        <v>548.3099999999999</v>
+      </c>
+      <c r="AE14">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="AF14">
+        <v>55.38</v>
+      </c>
+      <c r="AG14">
+        <v>41.42</v>
+      </c>
+      <c r="AH14">
+        <v>469.97</v>
+      </c>
+      <c r="AI14">
+        <v>7.83</v>
+      </c>
+      <c r="AJ14">
+        <v>55.38</v>
+      </c>
+      <c r="AK14">
+        <v>40.42</v>
+      </c>
+      <c r="AL14">
+        <v>574.67</v>
+      </c>
+      <c r="AM14">
+        <v>9.58</v>
+      </c>
+      <c r="AN14">
+        <v>55.38</v>
+      </c>
+      <c r="AO14">
+        <v>40.16</v>
+      </c>
+      <c r="AP14">
+        <v>617.29</v>
+      </c>
+      <c r="AQ14">
+        <v>10.29</v>
+      </c>
+      <c r="AR14">
+        <v>55.38</v>
+      </c>
+      <c r="AS14">
         <v>0</v>
       </c>
-      <c r="Z14">
-        <v>45.01</v>
-      </c>
-      <c r="AA14">
-        <v>4.12</v>
-      </c>
-      <c r="AB14">
-        <v>606.79</v>
-      </c>
-      <c r="AC14">
-        <v>78.13</v>
-      </c>
-      <c r="AD14">
-        <v>10.11</v>
-      </c>
-      <c r="AE14">
-        <v>1.3</v>
+      <c r="AT14">
+        <v>42.75</v>
+      </c>
+      <c r="AU14">
+        <v>3.66</v>
+      </c>
+      <c r="AV14">
+        <v>563.8099999999999</v>
+      </c>
+      <c r="AW14">
+        <v>91</v>
+      </c>
+      <c r="AX14">
+        <v>9.4</v>
+      </c>
+      <c r="AY14">
+        <v>1.52</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:51">
       <c r="A15" s="1">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>56.18</v>
@@ -1964,36 +2864,96 @@
         <v>56.18</v>
       </c>
       <c r="Y15">
+        <v>40.24</v>
+      </c>
+      <c r="Z15">
+        <v>379.58</v>
+      </c>
+      <c r="AA15">
+        <v>6.33</v>
+      </c>
+      <c r="AB15">
+        <v>56.18</v>
+      </c>
+      <c r="AC15">
+        <v>41.54</v>
+      </c>
+      <c r="AD15">
+        <v>559.4400000000001</v>
+      </c>
+      <c r="AE15">
+        <v>9.32</v>
+      </c>
+      <c r="AF15">
+        <v>56.18</v>
+      </c>
+      <c r="AG15">
+        <v>41.61</v>
+      </c>
+      <c r="AH15">
+        <v>538.83</v>
+      </c>
+      <c r="AI15">
+        <v>8.98</v>
+      </c>
+      <c r="AJ15">
+        <v>56.18</v>
+      </c>
+      <c r="AK15">
+        <v>43.09</v>
+      </c>
+      <c r="AL15">
+        <v>625.88</v>
+      </c>
+      <c r="AM15">
+        <v>10.43</v>
+      </c>
+      <c r="AN15">
+        <v>56.18</v>
+      </c>
+      <c r="AO15">
+        <v>50.87</v>
+      </c>
+      <c r="AP15">
+        <v>634.5</v>
+      </c>
+      <c r="AQ15">
+        <v>10.57</v>
+      </c>
+      <c r="AR15">
+        <v>56.18</v>
+      </c>
+      <c r="AS15">
         <v>0</v>
       </c>
-      <c r="Z15">
-        <v>42.31</v>
-      </c>
-      <c r="AA15">
-        <v>4.38</v>
-      </c>
-      <c r="AB15">
-        <v>593.99</v>
-      </c>
-      <c r="AC15">
-        <v>85.51000000000001</v>
-      </c>
-      <c r="AD15">
-        <v>9.9</v>
-      </c>
-      <c r="AE15">
-        <v>1.43</v>
+      <c r="AT15">
+        <v>42.89</v>
+      </c>
+      <c r="AU15">
+        <v>4.12</v>
+      </c>
+      <c r="AV15">
+        <v>570.8200000000001</v>
+      </c>
+      <c r="AW15">
+        <v>92.34</v>
+      </c>
+      <c r="AX15">
+        <v>9.51</v>
+      </c>
+      <c r="AY15">
+        <v>1.54</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:51">
       <c r="A16" s="1">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>0.1</v>
@@ -2059,36 +3019,96 @@
         <v>0.1</v>
       </c>
       <c r="Y16">
+        <v>37.48</v>
+      </c>
+      <c r="Z16">
+        <v>753.87</v>
+      </c>
+      <c r="AA16">
+        <v>12.56</v>
+      </c>
+      <c r="AB16">
+        <v>0.1</v>
+      </c>
+      <c r="AC16">
+        <v>38.9</v>
+      </c>
+      <c r="AD16">
+        <v>1027.97</v>
+      </c>
+      <c r="AE16">
+        <v>17.13</v>
+      </c>
+      <c r="AF16">
+        <v>0.1</v>
+      </c>
+      <c r="AG16">
+        <v>38.28</v>
+      </c>
+      <c r="AH16">
+        <v>993.17</v>
+      </c>
+      <c r="AI16">
+        <v>16.55</v>
+      </c>
+      <c r="AJ16">
+        <v>0.1</v>
+      </c>
+      <c r="AK16">
+        <v>38.07</v>
+      </c>
+      <c r="AL16">
+        <v>1239.95</v>
+      </c>
+      <c r="AM16">
+        <v>20.67</v>
+      </c>
+      <c r="AN16">
+        <v>0.1</v>
+      </c>
+      <c r="AO16">
+        <v>38.81</v>
+      </c>
+      <c r="AP16">
+        <v>1061.9</v>
+      </c>
+      <c r="AQ16">
+        <v>17.7</v>
+      </c>
+      <c r="AR16">
+        <v>0.1</v>
+      </c>
+      <c r="AS16">
         <v>0</v>
       </c>
-      <c r="Z16">
-        <v>44.27</v>
-      </c>
-      <c r="AA16">
-        <v>8.18</v>
-      </c>
-      <c r="AB16">
-        <v>996.65</v>
-      </c>
-      <c r="AC16">
-        <v>138.98</v>
-      </c>
-      <c r="AD16">
-        <v>16.61</v>
-      </c>
-      <c r="AE16">
-        <v>2.32</v>
+      <c r="AT16">
+        <v>41.29</v>
+      </c>
+      <c r="AU16">
+        <v>6.31</v>
+      </c>
+      <c r="AV16">
+        <v>1006.01</v>
+      </c>
+      <c r="AW16">
+        <v>148.99</v>
+      </c>
+      <c r="AX16">
+        <v>16.77</v>
+      </c>
+      <c r="AY16">
+        <v>2.48</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:51">
       <c r="A17" s="1">
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>0.2</v>
@@ -2154,36 +3174,96 @@
         <v>0.2</v>
       </c>
       <c r="Y17">
+        <v>39.64</v>
+      </c>
+      <c r="Z17">
+        <v>515.0599999999999</v>
+      </c>
+      <c r="AA17">
+        <v>8.58</v>
+      </c>
+      <c r="AB17">
+        <v>0.2</v>
+      </c>
+      <c r="AC17">
+        <v>39.6</v>
+      </c>
+      <c r="AD17">
+        <v>719.2</v>
+      </c>
+      <c r="AE17">
+        <v>11.99</v>
+      </c>
+      <c r="AF17">
+        <v>0.2</v>
+      </c>
+      <c r="AG17">
+        <v>39.81</v>
+      </c>
+      <c r="AH17">
+        <v>929.6</v>
+      </c>
+      <c r="AI17">
+        <v>15.49</v>
+      </c>
+      <c r="AJ17">
+        <v>0.2</v>
+      </c>
+      <c r="AK17">
+        <v>39.75</v>
+      </c>
+      <c r="AL17">
+        <v>841.22</v>
+      </c>
+      <c r="AM17">
+        <v>14.02</v>
+      </c>
+      <c r="AN17">
+        <v>0.2</v>
+      </c>
+      <c r="AO17">
+        <v>46.51</v>
+      </c>
+      <c r="AP17">
+        <v>884.29</v>
+      </c>
+      <c r="AQ17">
+        <v>14.74</v>
+      </c>
+      <c r="AR17">
+        <v>0.2</v>
+      </c>
+      <c r="AS17">
         <v>0</v>
       </c>
-      <c r="Z17">
-        <v>44.35</v>
-      </c>
-      <c r="AA17">
-        <v>3.1</v>
-      </c>
-      <c r="AB17">
-        <v>862.89</v>
-      </c>
-      <c r="AC17">
-        <v>98.86</v>
-      </c>
-      <c r="AD17">
-        <v>14.38</v>
-      </c>
-      <c r="AE17">
-        <v>1.65</v>
+      <c r="AT17">
+        <v>42.71</v>
+      </c>
+      <c r="AU17">
+        <v>3.37</v>
+      </c>
+      <c r="AV17">
+        <v>820.38</v>
+      </c>
+      <c r="AW17">
+        <v>136.64</v>
+      </c>
+      <c r="AX17">
+        <v>13.67</v>
+      </c>
+      <c r="AY17">
+        <v>2.28</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:51">
       <c r="A18" s="1">
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -2249,36 +3329,96 @@
         <v>0.3</v>
       </c>
       <c r="Y18">
+        <v>38.37</v>
+      </c>
+      <c r="Z18">
+        <v>518.88</v>
+      </c>
+      <c r="AA18">
+        <v>8.65</v>
+      </c>
+      <c r="AB18">
+        <v>0.3</v>
+      </c>
+      <c r="AC18">
+        <v>38.15</v>
+      </c>
+      <c r="AD18">
+        <v>785.49</v>
+      </c>
+      <c r="AE18">
+        <v>13.09</v>
+      </c>
+      <c r="AF18">
+        <v>0.3</v>
+      </c>
+      <c r="AG18">
+        <v>38.95</v>
+      </c>
+      <c r="AH18">
+        <v>677.9</v>
+      </c>
+      <c r="AI18">
+        <v>11.3</v>
+      </c>
+      <c r="AJ18">
+        <v>0.3</v>
+      </c>
+      <c r="AK18">
+        <v>39.04</v>
+      </c>
+      <c r="AL18">
+        <v>778.88</v>
+      </c>
+      <c r="AM18">
+        <v>12.98</v>
+      </c>
+      <c r="AN18">
+        <v>0.3</v>
+      </c>
+      <c r="AO18">
+        <v>51.49</v>
+      </c>
+      <c r="AP18">
+        <v>781.04</v>
+      </c>
+      <c r="AQ18">
+        <v>13.02</v>
+      </c>
+      <c r="AR18">
+        <v>0.3</v>
+      </c>
+      <c r="AS18">
         <v>0</v>
       </c>
-      <c r="Z18">
-        <v>44.85</v>
-      </c>
-      <c r="AA18">
-        <v>5.49</v>
-      </c>
-      <c r="AB18">
-        <v>793.66</v>
-      </c>
-      <c r="AC18">
-        <v>120.43</v>
-      </c>
-      <c r="AD18">
-        <v>13.23</v>
-      </c>
-      <c r="AE18">
-        <v>2.01</v>
+      <c r="AT18">
+        <v>43.02</v>
+      </c>
+      <c r="AU18">
+        <v>5.64</v>
+      </c>
+      <c r="AV18">
+        <v>751.05</v>
+      </c>
+      <c r="AW18">
+        <v>119.82</v>
+      </c>
+      <c r="AX18">
+        <v>12.52</v>
+      </c>
+      <c r="AY18">
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:51">
       <c r="A19" s="1">
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>0.4</v>
@@ -2344,36 +3484,96 @@
         <v>0.4</v>
       </c>
       <c r="Y19">
+        <v>38.52</v>
+      </c>
+      <c r="Z19">
+        <v>532.53</v>
+      </c>
+      <c r="AA19">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="AB19">
+        <v>0.4</v>
+      </c>
+      <c r="AC19">
+        <v>39.95</v>
+      </c>
+      <c r="AD19">
+        <v>637.75</v>
+      </c>
+      <c r="AE19">
+        <v>10.63</v>
+      </c>
+      <c r="AF19">
+        <v>0.4</v>
+      </c>
+      <c r="AG19">
+        <v>39.89</v>
+      </c>
+      <c r="AH19">
+        <v>649.47</v>
+      </c>
+      <c r="AI19">
+        <v>10.82</v>
+      </c>
+      <c r="AJ19">
+        <v>0.4</v>
+      </c>
+      <c r="AK19">
+        <v>45.9</v>
+      </c>
+      <c r="AL19">
+        <v>725.35</v>
+      </c>
+      <c r="AM19">
+        <v>12.09</v>
+      </c>
+      <c r="AN19">
+        <v>0.4</v>
+      </c>
+      <c r="AO19">
+        <v>46.53</v>
+      </c>
+      <c r="AP19">
+        <v>762.25</v>
+      </c>
+      <c r="AQ19">
+        <v>12.7</v>
+      </c>
+      <c r="AR19">
+        <v>0.4</v>
+      </c>
+      <c r="AS19">
         <v>0</v>
       </c>
-      <c r="Z19">
-        <v>49.06</v>
-      </c>
-      <c r="AA19">
-        <v>3.95</v>
-      </c>
-      <c r="AB19">
-        <v>688.65</v>
-      </c>
-      <c r="AC19">
-        <v>121.92</v>
-      </c>
-      <c r="AD19">
-        <v>11.48</v>
-      </c>
-      <c r="AE19">
-        <v>2.03</v>
+      <c r="AT19">
+        <v>45.61</v>
+      </c>
+      <c r="AU19">
+        <v>5.14</v>
+      </c>
+      <c r="AV19">
+        <v>675.0599999999999</v>
+      </c>
+      <c r="AW19">
+        <v>101.58</v>
+      </c>
+      <c r="AX19">
+        <v>11.25</v>
+      </c>
+      <c r="AY19">
+        <v>1.69</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:51">
       <c r="A20" s="1">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <v>0.5</v>
@@ -2439,36 +3639,96 @@
         <v>0.5</v>
       </c>
       <c r="Y20">
+        <v>41.98</v>
+      </c>
+      <c r="Z20">
+        <v>486.93</v>
+      </c>
+      <c r="AA20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AB20">
+        <v>0.5</v>
+      </c>
+      <c r="AC20">
+        <v>39.46</v>
+      </c>
+      <c r="AD20">
+        <v>595.76</v>
+      </c>
+      <c r="AE20">
+        <v>9.93</v>
+      </c>
+      <c r="AF20">
+        <v>0.5</v>
+      </c>
+      <c r="AG20">
+        <v>41.37</v>
+      </c>
+      <c r="AH20">
+        <v>552.41</v>
+      </c>
+      <c r="AI20">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="AJ20">
+        <v>0.5</v>
+      </c>
+      <c r="AK20">
+        <v>39.16</v>
+      </c>
+      <c r="AL20">
+        <v>615.13</v>
+      </c>
+      <c r="AM20">
+        <v>10.25</v>
+      </c>
+      <c r="AN20">
+        <v>0.5</v>
+      </c>
+      <c r="AO20">
+        <v>48.81</v>
+      </c>
+      <c r="AP20">
+        <v>659.4</v>
+      </c>
+      <c r="AQ20">
+        <v>10.99</v>
+      </c>
+      <c r="AR20">
+        <v>0.5</v>
+      </c>
+      <c r="AS20">
         <v>0</v>
       </c>
-      <c r="Z20">
-        <v>41.8</v>
-      </c>
-      <c r="AA20">
-        <v>3.8</v>
-      </c>
-      <c r="AB20">
-        <v>592.2</v>
-      </c>
-      <c r="AC20">
-        <v>60.15</v>
-      </c>
-      <c r="AD20">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="AE20">
-        <v>1</v>
+      <c r="AT20">
+        <v>41.98</v>
+      </c>
+      <c r="AU20">
+        <v>3.64</v>
+      </c>
+      <c r="AV20">
+        <v>587.0599999999999</v>
+      </c>
+      <c r="AW20">
+        <v>59.56</v>
+      </c>
+      <c r="AX20">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="AY20">
+        <v>0.99</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:51">
       <c r="A21" s="1">
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>0.6</v>
@@ -2534,36 +3794,96 @@
         <v>0.6</v>
       </c>
       <c r="Y21">
+        <v>41.07</v>
+      </c>
+      <c r="Z21">
+        <v>398.94</v>
+      </c>
+      <c r="AA21">
+        <v>6.65</v>
+      </c>
+      <c r="AB21">
+        <v>0.6</v>
+      </c>
+      <c r="AC21">
+        <v>42.22</v>
+      </c>
+      <c r="AD21">
+        <v>540.63</v>
+      </c>
+      <c r="AE21">
+        <v>9.01</v>
+      </c>
+      <c r="AF21">
+        <v>0.6</v>
+      </c>
+      <c r="AG21">
+        <v>42.26</v>
+      </c>
+      <c r="AH21">
+        <v>543.75</v>
+      </c>
+      <c r="AI21">
+        <v>9.06</v>
+      </c>
+      <c r="AJ21">
+        <v>0.6</v>
+      </c>
+      <c r="AK21">
+        <v>41.94</v>
+      </c>
+      <c r="AL21">
+        <v>660.48</v>
+      </c>
+      <c r="AM21">
+        <v>11.01</v>
+      </c>
+      <c r="AN21">
+        <v>0.6</v>
+      </c>
+      <c r="AO21">
+        <v>49.97</v>
+      </c>
+      <c r="AP21">
+        <v>589.36</v>
+      </c>
+      <c r="AQ21">
+        <v>9.82</v>
+      </c>
+      <c r="AR21">
+        <v>0.6</v>
+      </c>
+      <c r="AS21">
         <v>0</v>
       </c>
-      <c r="Z21">
-        <v>50.27</v>
-      </c>
-      <c r="AA21">
-        <v>4.61</v>
-      </c>
-      <c r="AB21">
-        <v>558.92</v>
-      </c>
-      <c r="AC21">
-        <v>69.59</v>
-      </c>
-      <c r="AD21">
-        <v>9.32</v>
-      </c>
-      <c r="AE21">
-        <v>1.16</v>
+      <c r="AT21">
+        <v>46.88</v>
+      </c>
+      <c r="AU21">
+        <v>5.31</v>
+      </c>
+      <c r="AV21">
+        <v>552.78</v>
+      </c>
+      <c r="AW21">
+        <v>79.16</v>
+      </c>
+      <c r="AX21">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="AY21">
+        <v>1.32</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:51">
       <c r="A22" s="1">
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>0.7</v>
@@ -2629,36 +3949,96 @@
         <v>0.7</v>
       </c>
       <c r="Y22">
+        <v>47.5</v>
+      </c>
+      <c r="Z22">
+        <v>288.37</v>
+      </c>
+      <c r="AA22">
+        <v>4.81</v>
+      </c>
+      <c r="AB22">
+        <v>0.7</v>
+      </c>
+      <c r="AC22">
+        <v>44.99</v>
+      </c>
+      <c r="AD22">
+        <v>401.89</v>
+      </c>
+      <c r="AE22">
+        <v>6.7</v>
+      </c>
+      <c r="AF22">
+        <v>0.7</v>
+      </c>
+      <c r="AG22">
+        <v>45.74</v>
+      </c>
+      <c r="AH22">
+        <v>477.49</v>
+      </c>
+      <c r="AI22">
+        <v>7.96</v>
+      </c>
+      <c r="AJ22">
+        <v>0.7</v>
+      </c>
+      <c r="AK22">
+        <v>43.01</v>
+      </c>
+      <c r="AL22">
+        <v>508.77</v>
+      </c>
+      <c r="AM22">
+        <v>8.48</v>
+      </c>
+      <c r="AN22">
+        <v>0.7</v>
+      </c>
+      <c r="AO22">
+        <v>43.21</v>
+      </c>
+      <c r="AP22">
+        <v>515.9299999999999</v>
+      </c>
+      <c r="AQ22">
+        <v>8.6</v>
+      </c>
+      <c r="AR22">
+        <v>0.7</v>
+      </c>
+      <c r="AS22">
         <v>0</v>
       </c>
-      <c r="Z22">
-        <v>44.86</v>
-      </c>
-      <c r="AA22">
-        <v>2.1</v>
-      </c>
-      <c r="AB22">
-        <v>455.4</v>
-      </c>
-      <c r="AC22">
-        <v>62.04</v>
-      </c>
-      <c r="AD22">
-        <v>7.59</v>
-      </c>
-      <c r="AE22">
-        <v>1.03</v>
+      <c r="AT22">
+        <v>44.88</v>
+      </c>
+      <c r="AU22">
+        <v>1.87</v>
+      </c>
+      <c r="AV22">
+        <v>446.95</v>
+      </c>
+      <c r="AW22">
+        <v>76.33</v>
+      </c>
+      <c r="AX22">
+        <v>7.45</v>
+      </c>
+      <c r="AY22">
+        <v>1.27</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:51">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>0.8</v>
@@ -2724,36 +4104,96 @@
         <v>0.8</v>
       </c>
       <c r="Y23">
+        <v>46.74</v>
+      </c>
+      <c r="Z23">
+        <v>272.07</v>
+      </c>
+      <c r="AA23">
+        <v>4.53</v>
+      </c>
+      <c r="AB23">
+        <v>0.8</v>
+      </c>
+      <c r="AC23">
+        <v>52.17</v>
+      </c>
+      <c r="AD23">
+        <v>445.84</v>
+      </c>
+      <c r="AE23">
+        <v>7.43</v>
+      </c>
+      <c r="AF23">
+        <v>0.8</v>
+      </c>
+      <c r="AG23">
+        <v>49.37</v>
+      </c>
+      <c r="AH23">
+        <v>444.55</v>
+      </c>
+      <c r="AI23">
+        <v>7.41</v>
+      </c>
+      <c r="AJ23">
+        <v>0.8</v>
+      </c>
+      <c r="AK23">
+        <v>45.17</v>
+      </c>
+      <c r="AL23">
+        <v>378.66</v>
+      </c>
+      <c r="AM23">
+        <v>6.31</v>
+      </c>
+      <c r="AN23">
+        <v>0.8</v>
+      </c>
+      <c r="AO23">
+        <v>47.46</v>
+      </c>
+      <c r="AP23">
+        <v>373.93</v>
+      </c>
+      <c r="AQ23">
+        <v>6.23</v>
+      </c>
+      <c r="AR23">
+        <v>0.8</v>
+      </c>
+      <c r="AS23">
         <v>0</v>
       </c>
-      <c r="Z23">
-        <v>48.89</v>
-      </c>
-      <c r="AA23">
-        <v>1.8</v>
-      </c>
-      <c r="AB23">
-        <v>448.75</v>
-      </c>
-      <c r="AC23">
-        <v>89.95</v>
-      </c>
-      <c r="AD23">
-        <v>7.48</v>
-      </c>
-      <c r="AE23">
-        <v>1.5</v>
+      <c r="AT23">
+        <v>48.53</v>
+      </c>
+      <c r="AU23">
+        <v>2.19</v>
+      </c>
+      <c r="AV23">
+        <v>415.88</v>
+      </c>
+      <c r="AW23">
+        <v>83.87</v>
+      </c>
+      <c r="AX23">
+        <v>6.93</v>
+      </c>
+      <c r="AY23">
+        <v>1.4</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:51">
       <c r="A24" s="1">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>0.9</v>
@@ -2819,36 +4259,96 @@
         <v>0.9</v>
       </c>
       <c r="Y24">
+        <v>51.55</v>
+      </c>
+      <c r="Z24">
+        <v>235.66</v>
+      </c>
+      <c r="AA24">
+        <v>3.93</v>
+      </c>
+      <c r="AB24">
+        <v>0.9</v>
+      </c>
+      <c r="AC24">
+        <v>52.04</v>
+      </c>
+      <c r="AD24">
+        <v>293.95</v>
+      </c>
+      <c r="AE24">
+        <v>4.9</v>
+      </c>
+      <c r="AF24">
+        <v>0.9</v>
+      </c>
+      <c r="AG24">
+        <v>49.98</v>
+      </c>
+      <c r="AH24">
+        <v>281.07</v>
+      </c>
+      <c r="AI24">
+        <v>4.68</v>
+      </c>
+      <c r="AJ24">
+        <v>0.9</v>
+      </c>
+      <c r="AK24">
+        <v>48.98</v>
+      </c>
+      <c r="AL24">
+        <v>281.78</v>
+      </c>
+      <c r="AM24">
+        <v>4.7</v>
+      </c>
+      <c r="AN24">
+        <v>0.9</v>
+      </c>
+      <c r="AO24">
+        <v>51.84</v>
+      </c>
+      <c r="AP24">
+        <v>290.36</v>
+      </c>
+      <c r="AQ24">
+        <v>4.84</v>
+      </c>
+      <c r="AR24">
+        <v>0.9</v>
+      </c>
+      <c r="AS24">
         <v>0</v>
       </c>
-      <c r="Z24">
-        <v>51.51</v>
-      </c>
-      <c r="AA24">
-        <v>4.03</v>
-      </c>
-      <c r="AB24">
-        <v>281.84</v>
-      </c>
-      <c r="AC24">
-        <v>27.84</v>
-      </c>
-      <c r="AD24">
-        <v>4.7</v>
-      </c>
-      <c r="AE24">
-        <v>0.46</v>
+      <c r="AT24">
+        <v>51.2</v>
+      </c>
+      <c r="AU24">
+        <v>2.85</v>
+      </c>
+      <c r="AV24">
+        <v>279.2</v>
+      </c>
+      <c r="AW24">
+        <v>24.45</v>
+      </c>
+      <c r="AX24">
+        <v>4.65</v>
+      </c>
+      <c r="AY24">
+        <v>0.41</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:51">
       <c r="A25" s="1">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2914,36 +4414,96 @@
         <v>0</v>
       </c>
       <c r="Y25">
+        <v>38.47</v>
+      </c>
+      <c r="Z25">
+        <v>828.73</v>
+      </c>
+      <c r="AA25">
+        <v>13.81</v>
+      </c>
+      <c r="AB25">
         <v>0</v>
       </c>
-      <c r="Z25">
-        <v>42.18</v>
-      </c>
-      <c r="AA25">
-        <v>4.03</v>
-      </c>
-      <c r="AB25">
-        <v>1246.81</v>
-      </c>
       <c r="AC25">
-        <v>224.2</v>
+        <v>41.32</v>
       </c>
       <c r="AD25">
-        <v>20.78</v>
+        <v>1140.75</v>
       </c>
       <c r="AE25">
-        <v>3.74</v>
+        <v>19.01</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>39.45</v>
+      </c>
+      <c r="AH25">
+        <v>1398.85</v>
+      </c>
+      <c r="AI25">
+        <v>23.31</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>40.12</v>
+      </c>
+      <c r="AL25">
+        <v>1565.2</v>
+      </c>
+      <c r="AM25">
+        <v>26.09</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>40.82</v>
+      </c>
+      <c r="AP25">
+        <v>1319.16</v>
+      </c>
+      <c r="AQ25">
+        <v>21.99</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>41.11</v>
+      </c>
+      <c r="AU25">
+        <v>3.01</v>
+      </c>
+      <c r="AV25">
+        <v>1248.68</v>
+      </c>
+      <c r="AW25">
+        <v>239.63</v>
+      </c>
+      <c r="AX25">
+        <v>20.81</v>
+      </c>
+      <c r="AY25">
+        <v>3.99</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:51">
       <c r="A26" s="1">
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>81.95999999999999</v>
@@ -3009,36 +4569,96 @@
         <v>81.95999999999999</v>
       </c>
       <c r="Y26">
+        <v>49.99</v>
+      </c>
+      <c r="Z26">
+        <v>280.41</v>
+      </c>
+      <c r="AA26">
+        <v>4.67</v>
+      </c>
+      <c r="AB26">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="AC26">
+        <v>49.3</v>
+      </c>
+      <c r="AD26">
+        <v>387.02</v>
+      </c>
+      <c r="AE26">
+        <v>6.45</v>
+      </c>
+      <c r="AF26">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="AG26">
+        <v>51.21</v>
+      </c>
+      <c r="AH26">
+        <v>452.29</v>
+      </c>
+      <c r="AI26">
+        <v>7.54</v>
+      </c>
+      <c r="AJ26">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="AK26">
+        <v>49.97</v>
+      </c>
+      <c r="AL26">
+        <v>406.47</v>
+      </c>
+      <c r="AM26">
+        <v>6.77</v>
+      </c>
+      <c r="AN26">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="AO26">
+        <v>52.07</v>
+      </c>
+      <c r="AP26">
+        <v>377.57</v>
+      </c>
+      <c r="AQ26">
+        <v>6.29</v>
+      </c>
+      <c r="AR26">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="AS26">
         <v>0</v>
       </c>
-      <c r="Z26">
-        <v>51.35</v>
-      </c>
-      <c r="AA26">
-        <v>2.18</v>
-      </c>
-      <c r="AB26">
-        <v>457.63</v>
-      </c>
-      <c r="AC26">
-        <v>73.81</v>
-      </c>
-      <c r="AD26">
-        <v>7.63</v>
-      </c>
-      <c r="AE26">
-        <v>1.23</v>
+      <c r="AT26">
+        <v>50.93</v>
+      </c>
+      <c r="AU26">
+        <v>1.69</v>
+      </c>
+      <c r="AV26">
+        <v>419.19</v>
+      </c>
+      <c r="AW26">
+        <v>76.34999999999999</v>
+      </c>
+      <c r="AX26">
+        <v>6.99</v>
+      </c>
+      <c r="AY26">
+        <v>1.27</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:51">
       <c r="A27" s="1">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>71.94</v>
@@ -3104,36 +4724,96 @@
         <v>71.94</v>
       </c>
       <c r="Y27">
+        <v>45.08</v>
+      </c>
+      <c r="Z27">
+        <v>293.75</v>
+      </c>
+      <c r="AA27">
+        <v>4.9</v>
+      </c>
+      <c r="AB27">
+        <v>71.94</v>
+      </c>
+      <c r="AC27">
+        <v>45.39</v>
+      </c>
+      <c r="AD27">
+        <v>418.1</v>
+      </c>
+      <c r="AE27">
+        <v>6.97</v>
+      </c>
+      <c r="AF27">
+        <v>71.94</v>
+      </c>
+      <c r="AG27">
+        <v>48.56</v>
+      </c>
+      <c r="AH27">
+        <v>443.9</v>
+      </c>
+      <c r="AI27">
+        <v>7.4</v>
+      </c>
+      <c r="AJ27">
+        <v>71.94</v>
+      </c>
+      <c r="AK27">
+        <v>44.74</v>
+      </c>
+      <c r="AL27">
+        <v>455.14</v>
+      </c>
+      <c r="AM27">
+        <v>7.59</v>
+      </c>
+      <c r="AN27">
+        <v>71.94</v>
+      </c>
+      <c r="AO27">
+        <v>43.16</v>
+      </c>
+      <c r="AP27">
+        <v>414.73</v>
+      </c>
+      <c r="AQ27">
+        <v>6.91</v>
+      </c>
+      <c r="AR27">
+        <v>71.94</v>
+      </c>
+      <c r="AS27">
         <v>0</v>
       </c>
-      <c r="Z27">
-        <v>43.93</v>
-      </c>
-      <c r="AA27">
-        <v>1.34</v>
-      </c>
-      <c r="AB27">
-        <v>433.09</v>
-      </c>
-      <c r="AC27">
-        <v>31.4</v>
-      </c>
-      <c r="AD27">
-        <v>7.22</v>
-      </c>
-      <c r="AE27">
-        <v>0.52</v>
+      <c r="AT27">
+        <v>44.66</v>
+      </c>
+      <c r="AU27">
+        <v>1.77</v>
+      </c>
+      <c r="AV27">
+        <v>419.11</v>
+      </c>
+      <c r="AW27">
+        <v>50.08</v>
+      </c>
+      <c r="AX27">
+        <v>6.99</v>
+      </c>
+      <c r="AY27">
+        <v>0.83</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:51">
       <c r="A28" s="1">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>82.23</v>
@@ -3199,36 +4879,96 @@
         <v>82.23</v>
       </c>
       <c r="Y28">
+        <v>52.19</v>
+      </c>
+      <c r="Z28">
+        <v>259.43</v>
+      </c>
+      <c r="AA28">
+        <v>4.32</v>
+      </c>
+      <c r="AB28">
+        <v>82.23</v>
+      </c>
+      <c r="AC28">
+        <v>51.1</v>
+      </c>
+      <c r="AD28">
+        <v>378.03</v>
+      </c>
+      <c r="AE28">
+        <v>6.3</v>
+      </c>
+      <c r="AF28">
+        <v>82.23</v>
+      </c>
+      <c r="AG28">
+        <v>50.96</v>
+      </c>
+      <c r="AH28">
+        <v>400.69</v>
+      </c>
+      <c r="AI28">
+        <v>6.68</v>
+      </c>
+      <c r="AJ28">
+        <v>82.23</v>
+      </c>
+      <c r="AK28">
+        <v>48.19</v>
+      </c>
+      <c r="AL28">
+        <v>379.84</v>
+      </c>
+      <c r="AM28">
+        <v>6.33</v>
+      </c>
+      <c r="AN28">
+        <v>82.23</v>
+      </c>
+      <c r="AO28">
+        <v>50.82</v>
+      </c>
+      <c r="AP28">
+        <v>357.96</v>
+      </c>
+      <c r="AQ28">
+        <v>5.97</v>
+      </c>
+      <c r="AR28">
+        <v>82.23</v>
+      </c>
+      <c r="AS28">
         <v>0</v>
       </c>
-      <c r="Z28">
-        <v>53.46</v>
-      </c>
-      <c r="AA28">
-        <v>1.94</v>
-      </c>
-      <c r="AB28">
-        <v>405.64</v>
-      </c>
-      <c r="AC28">
-        <v>66.08</v>
-      </c>
-      <c r="AD28">
-        <v>6.76</v>
-      </c>
-      <c r="AE28">
-        <v>1.1</v>
+      <c r="AT28">
+        <v>52.06</v>
+      </c>
+      <c r="AU28">
+        <v>2.2</v>
+      </c>
+      <c r="AV28">
+        <v>380.42</v>
+      </c>
+      <c r="AW28">
+        <v>63.43</v>
+      </c>
+      <c r="AX28">
+        <v>6.34</v>
+      </c>
+      <c r="AY28">
+        <v>1.06</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:51">
       <c r="A29" s="1">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>42.02</v>
@@ -3294,36 +5034,96 @@
         <v>42.02</v>
       </c>
       <c r="Y29">
+        <v>39.11</v>
+      </c>
+      <c r="Z29">
+        <v>442.43</v>
+      </c>
+      <c r="AA29">
+        <v>7.37</v>
+      </c>
+      <c r="AB29">
+        <v>42.02</v>
+      </c>
+      <c r="AC29">
+        <v>43.34</v>
+      </c>
+      <c r="AD29">
+        <v>683.58</v>
+      </c>
+      <c r="AE29">
+        <v>11.39</v>
+      </c>
+      <c r="AF29">
+        <v>42.02</v>
+      </c>
+      <c r="AG29">
+        <v>38.94</v>
+      </c>
+      <c r="AH29">
+        <v>575.89</v>
+      </c>
+      <c r="AI29">
+        <v>9.6</v>
+      </c>
+      <c r="AJ29">
+        <v>42.02</v>
+      </c>
+      <c r="AK29">
+        <v>40.79</v>
+      </c>
+      <c r="AL29">
+        <v>692.61</v>
+      </c>
+      <c r="AM29">
+        <v>11.54</v>
+      </c>
+      <c r="AN29">
+        <v>42.02</v>
+      </c>
+      <c r="AO29">
+        <v>43.41</v>
+      </c>
+      <c r="AP29">
+        <v>692.5599999999999</v>
+      </c>
+      <c r="AQ29">
+        <v>11.54</v>
+      </c>
+      <c r="AR29">
+        <v>42.02</v>
+      </c>
+      <c r="AS29">
         <v>0</v>
       </c>
-      <c r="Z29">
-        <v>43.92</v>
-      </c>
-      <c r="AA29">
-        <v>1.33</v>
-      </c>
-      <c r="AB29">
-        <v>720.87</v>
-      </c>
-      <c r="AC29">
-        <v>76.92</v>
-      </c>
-      <c r="AD29">
-        <v>12.01</v>
-      </c>
-      <c r="AE29">
-        <v>1.28</v>
+      <c r="AT29">
+        <v>42.52</v>
+      </c>
+      <c r="AU29">
+        <v>2.26</v>
+      </c>
+      <c r="AV29">
+        <v>669.14</v>
+      </c>
+      <c r="AW29">
+        <v>104.59</v>
+      </c>
+      <c r="AX29">
+        <v>11.15</v>
+      </c>
+      <c r="AY29">
+        <v>1.74</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:51">
       <c r="A30" s="1">
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>71.81</v>
@@ -3389,36 +5189,96 @@
         <v>71.81</v>
       </c>
       <c r="Y30">
+        <v>47.26</v>
+      </c>
+      <c r="Z30">
+        <v>289.92</v>
+      </c>
+      <c r="AA30">
+        <v>4.83</v>
+      </c>
+      <c r="AB30">
+        <v>71.81</v>
+      </c>
+      <c r="AC30">
+        <v>47.38</v>
+      </c>
+      <c r="AD30">
+        <v>425.61</v>
+      </c>
+      <c r="AE30">
+        <v>7.09</v>
+      </c>
+      <c r="AF30">
+        <v>71.81</v>
+      </c>
+      <c r="AG30">
+        <v>46.62</v>
+      </c>
+      <c r="AH30">
+        <v>436.57</v>
+      </c>
+      <c r="AI30">
+        <v>7.28</v>
+      </c>
+      <c r="AJ30">
+        <v>71.81</v>
+      </c>
+      <c r="AK30">
+        <v>44.58</v>
+      </c>
+      <c r="AL30">
+        <v>463.28</v>
+      </c>
+      <c r="AM30">
+        <v>7.72</v>
+      </c>
+      <c r="AN30">
+        <v>71.81</v>
+      </c>
+      <c r="AO30">
+        <v>44.93</v>
+      </c>
+      <c r="AP30">
+        <v>406.88</v>
+      </c>
+      <c r="AQ30">
+        <v>6.78</v>
+      </c>
+      <c r="AR30">
+        <v>71.81</v>
+      </c>
+      <c r="AS30">
         <v>0</v>
       </c>
-      <c r="Z30">
-        <v>45.7</v>
-      </c>
-      <c r="AA30">
-        <v>2.36</v>
-      </c>
-      <c r="AB30">
-        <v>465.32</v>
-      </c>
-      <c r="AC30">
-        <v>56.51</v>
-      </c>
-      <c r="AD30">
-        <v>7.76</v>
-      </c>
-      <c r="AE30">
-        <v>0.9399999999999999</v>
+      <c r="AT30">
+        <v>45.93</v>
+      </c>
+      <c r="AU30">
+        <v>1.81</v>
+      </c>
+      <c r="AV30">
+        <v>434.89</v>
+      </c>
+      <c r="AW30">
+        <v>66.75</v>
+      </c>
+      <c r="AX30">
+        <v>7.25</v>
+      </c>
+      <c r="AY30">
+        <v>1.11</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:51">
       <c r="A31" s="1">
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>71.88</v>
@@ -3484,36 +5344,96 @@
         <v>71.88</v>
       </c>
       <c r="Y31">
+        <v>46.91</v>
+      </c>
+      <c r="Z31">
+        <v>289.76</v>
+      </c>
+      <c r="AA31">
+        <v>4.83</v>
+      </c>
+      <c r="AB31">
+        <v>71.88</v>
+      </c>
+      <c r="AC31">
+        <v>42.35</v>
+      </c>
+      <c r="AD31">
+        <v>451.77</v>
+      </c>
+      <c r="AE31">
+        <v>7.53</v>
+      </c>
+      <c r="AF31">
+        <v>71.88</v>
+      </c>
+      <c r="AG31">
+        <v>47.7</v>
+      </c>
+      <c r="AH31">
+        <v>457.48</v>
+      </c>
+      <c r="AI31">
+        <v>7.62</v>
+      </c>
+      <c r="AJ31">
+        <v>71.88</v>
+      </c>
+      <c r="AK31">
+        <v>41.46</v>
+      </c>
+      <c r="AL31">
+        <v>526.98</v>
+      </c>
+      <c r="AM31">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="AN31">
+        <v>71.88</v>
+      </c>
+      <c r="AO31">
+        <v>43.47</v>
+      </c>
+      <c r="AP31">
+        <v>444.5</v>
+      </c>
+      <c r="AQ31">
+        <v>7.41</v>
+      </c>
+      <c r="AR31">
+        <v>71.88</v>
+      </c>
+      <c r="AS31">
         <v>0</v>
       </c>
-      <c r="Z31">
-        <v>45.39</v>
-      </c>
-      <c r="AA31">
-        <v>2.5</v>
-      </c>
-      <c r="AB31">
-        <v>462.29</v>
-      </c>
-      <c r="AC31">
-        <v>48.98</v>
-      </c>
-      <c r="AD31">
-        <v>7.7</v>
-      </c>
-      <c r="AE31">
-        <v>0.82</v>
+      <c r="AT31">
+        <v>44.88</v>
+      </c>
+      <c r="AU31">
+        <v>2.55</v>
+      </c>
+      <c r="AV31">
+        <v>448.2</v>
+      </c>
+      <c r="AW31">
+        <v>68.31999999999999</v>
+      </c>
+      <c r="AX31">
+        <v>7.47</v>
+      </c>
+      <c r="AY31">
+        <v>1.14</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:51">
       <c r="A32" s="1">
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D32">
         <v>65.8</v>
@@ -3579,25 +5499,85 @@
         <v>65.8</v>
       </c>
       <c r="Y32">
+        <v>44.96</v>
+      </c>
+      <c r="Z32">
+        <v>308.39</v>
+      </c>
+      <c r="AA32">
+        <v>5.14</v>
+      </c>
+      <c r="AB32">
+        <v>65.8</v>
+      </c>
+      <c r="AC32">
+        <v>43.3</v>
+      </c>
+      <c r="AD32">
+        <v>407.95</v>
+      </c>
+      <c r="AE32">
+        <v>6.8</v>
+      </c>
+      <c r="AF32">
+        <v>65.8</v>
+      </c>
+      <c r="AG32">
+        <v>41.63</v>
+      </c>
+      <c r="AH32">
+        <v>426.73</v>
+      </c>
+      <c r="AI32">
+        <v>7.11</v>
+      </c>
+      <c r="AJ32">
+        <v>65.8</v>
+      </c>
+      <c r="AK32">
+        <v>51.08</v>
+      </c>
+      <c r="AL32">
+        <v>459.5</v>
+      </c>
+      <c r="AM32">
+        <v>7.66</v>
+      </c>
+      <c r="AN32">
+        <v>65.8</v>
+      </c>
+      <c r="AO32">
+        <v>43.14</v>
+      </c>
+      <c r="AP32">
+        <v>497.22</v>
+      </c>
+      <c r="AQ32">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="AR32">
+        <v>65.8</v>
+      </c>
+      <c r="AS32">
         <v>0</v>
       </c>
-      <c r="Z32">
-        <v>44.73</v>
-      </c>
-      <c r="AA32">
-        <v>2.57</v>
-      </c>
-      <c r="AB32">
-        <v>477.26</v>
-      </c>
-      <c r="AC32">
-        <v>52.45</v>
-      </c>
-      <c r="AD32">
-        <v>7.95</v>
-      </c>
-      <c r="AE32">
-        <v>0.87</v>
+      <c r="AT32">
+        <v>44.78</v>
+      </c>
+      <c r="AU32">
+        <v>3</v>
+      </c>
+      <c r="AV32">
+        <v>448.61</v>
+      </c>
+      <c r="AW32">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="AX32">
+        <v>7.48</v>
+      </c>
+      <c r="AY32">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
